--- a/lab/graph/data/input/input_Na_inside.xlsx
+++ b/lab/graph/data/input/input_Na_inside.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arizona95\Desktop\git\BEAT\lab\graph\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arizona95\Desktop\arizona95\git\BEAT\lab\graph\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F1069-D8A4-4D31-913F-EC12B0214B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1520BC3-8C26-4B01-9DD4-E46757E627BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="5565" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
